--- a/data/trans_dic/P16A97-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16A97-Edad-trans_dic.xlsx
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,21; 1,76</t>
+          <t>0,21; 1,97</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,14; 4,44</t>
+          <t>1,13; 4,35</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,23; 4,7</t>
+          <t>1,16; 4,45</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,67; 4,0</t>
+          <t>0,8; 3,86</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,97; 9,09</t>
+          <t>3,06; 9,43</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,23; 9,47</t>
+          <t>3,15; 9,37</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,53; 2,08</t>
+          <t>0,55; 2,07</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,32; 5,45</t>
+          <t>2,35; 5,6</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>2,41; 5,76</t>
+          <t>2,35; 5,45</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,83; 3,14</t>
+          <t>0,78; 3,21</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,43; 9,05</t>
+          <t>4,23; 8,91</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,59; 5,61</t>
+          <t>1,68; 5,81</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,57; 10,07</t>
+          <t>4,61; 9,71</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>9,1; 17,99</t>
+          <t>9,71; 18,2</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,68; 10,03</t>
+          <t>4,58; 10,51</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,59; 5,13</t>
+          <t>2,57; 5,04</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>7,03; 11,5</t>
+          <t>6,99; 11,09</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>3,43; 6,81</t>
+          <t>3,43; 6,7</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,8; 3,21</t>
+          <t>0,78; 3,39</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,51; 10,67</t>
+          <t>5,43; 10,39</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,62; 6,66</t>
+          <t>2,59; 6,8</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,66; 8,08</t>
+          <t>3,61; 8,12</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>14,22; 22,58</t>
+          <t>14,42; 23,08</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>10,48; 17,93</t>
+          <t>10,68; 17,89</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,41; 4,8</t>
+          <t>2,26; 4,72</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>9,85; 14,47</t>
+          <t>10,11; 14,82</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>6,92; 10,92</t>
+          <t>6,9; 10,79</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,48; 5,6</t>
+          <t>1,52; 5,88</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,0; 16,38</t>
+          <t>9,04; 16,36</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>9,4; 16,77</t>
+          <t>9,29; 16,75</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>10,14; 18,93</t>
+          <t>10,31; 19,45</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>31,0; 42,57</t>
+          <t>30,68; 42,33</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>21,11; 30,56</t>
+          <t>20,88; 30,4</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>6,0; 10,4</t>
+          <t>6,11; 10,63</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>20,15; 27,07</t>
+          <t>20,33; 27,14</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>15,76; 22,12</t>
+          <t>16,12; 22,18</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,24; 19,64</t>
+          <t>7,27; 18,87</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>32,34; 47,52</t>
+          <t>32,25; 47,21</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>15,58; 26,87</t>
+          <t>15,45; 27,1</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>17,3; 31,54</t>
+          <t>17,13; 31,1</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>52,59; 67,2</t>
+          <t>53,26; 67,79</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>34,35; 50,61</t>
+          <t>34,27; 50,55</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>13,78; 23,4</t>
+          <t>13,81; 23,49</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>45,24; 56,26</t>
+          <t>45,28; 56,23</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>25,95; 35,62</t>
+          <t>25,89; 35,98</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>24,95; 41,88</t>
+          <t>25,62; 42,43</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>71,04; 82,66</t>
+          <t>71,33; 82,3</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>54,44; 67,47</t>
+          <t>54,1; 67,41</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>29,29; 49,02</t>
+          <t>29,85; 50,01</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>80,12; 89,41</t>
+          <t>80,01; 89,0</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>66,77; 80,18</t>
+          <t>66,37; 80,28</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>29,41; 42,67</t>
+          <t>29,04; 42,2</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>77,87; 84,93</t>
+          <t>77,58; 85,04</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>62,05; 71,89</t>
+          <t>62,14; 72,49</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1564,17 +1564,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,46; 5,3</t>
+          <t>3,5; 5,37</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>15,9; 19,36</t>
+          <t>15,84; 19,32</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>11,29; 14,31</t>
+          <t>11,35; 14,43</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1584,17 +1584,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>8,76; 11,63</t>
+          <t>8,75; 11,6</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>32,79; 37,76</t>
+          <t>32,55; 37,5</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>21,44; 25,97</t>
+          <t>21,81; 26,12</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>6,05; 7,86</t>
+          <t>5,99; 7,63</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>23,93; 26,79</t>
+          <t>23,91; 26,85</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>16,56; 19,15</t>
+          <t>16,56; 19,24</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">

--- a/data/trans_dic/P16A97-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16A97-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,21; 1,97</t>
+          <t>0,21; 1,73</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,13; 4,35</t>
+          <t>1,09; 4,47</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,16; 4,45</t>
+          <t>1,1; 4,65</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,8; 3,86</t>
+          <t>0,67; 3,71</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,06; 9,43</t>
+          <t>2,97; 9,35</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,15; 9,37</t>
+          <t>2,83; 8,46</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,55; 2,07</t>
+          <t>0,54; 2,19</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,35; 5,6</t>
+          <t>2,29; 5,5</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>2,35; 5,45</t>
+          <t>2,34; 5,42</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,78; 3,21</t>
+          <t>0,75; 3,19</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,23; 8,91</t>
+          <t>4,4; 8,99</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,68; 5,81</t>
+          <t>1,61; 5,73</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,61; 9,71</t>
+          <t>4,4; 9,64</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>9,71; 18,2</t>
+          <t>9,62; 18,52</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,58; 10,51</t>
+          <t>4,38; 10,02</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,57; 5,04</t>
+          <t>2,64; 5,11</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>6,99; 11,09</t>
+          <t>7,19; 11,19</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>3,43; 6,7</t>
+          <t>3,46; 6,83</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,78; 3,39</t>
+          <t>0,82; 3,09</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,43; 10,39</t>
+          <t>5,52; 10,57</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,59; 6,8</t>
+          <t>2,54; 6,49</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,61; 8,12</t>
+          <t>3,44; 7,98</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>14,42; 23,08</t>
+          <t>14,41; 23,14</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>10,68; 17,89</t>
+          <t>10,95; 17,85</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,26; 4,72</t>
+          <t>2,43; 4,76</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>10,11; 14,82</t>
+          <t>9,9; 14,63</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>6,9; 10,79</t>
+          <t>7,12; 11,19</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,52; 5,88</t>
+          <t>1,53; 6,04</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,04; 16,36</t>
+          <t>9,22; 16,24</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>9,29; 16,75</t>
+          <t>9,53; 17,04</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>10,31; 19,45</t>
+          <t>10,69; 19,21</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>30,68; 42,33</t>
+          <t>31,69; 43,06</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>20,88; 30,4</t>
+          <t>20,37; 30,14</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>6,11; 10,63</t>
+          <t>6,26; 10,47</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>20,33; 27,14</t>
+          <t>19,91; 26,99</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>16,12; 22,18</t>
+          <t>15,93; 21,99</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,27; 18,87</t>
+          <t>7,58; 19,27</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>32,25; 47,21</t>
+          <t>32,01; 47,84</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>15,45; 27,1</t>
+          <t>15,64; 26,89</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>17,13; 31,1</t>
+          <t>16,64; 31,68</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>53,26; 67,79</t>
+          <t>53,35; 68,19</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>34,27; 50,55</t>
+          <t>34,55; 49,71</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>13,81; 23,49</t>
+          <t>13,68; 23,34</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>45,28; 56,23</t>
+          <t>45,35; 55,55</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>25,89; 35,98</t>
+          <t>25,62; 35,43</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>25,62; 42,43</t>
+          <t>25,67; 42,54</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>71,33; 82,3</t>
+          <t>70,62; 82,04</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>54,1; 67,41</t>
+          <t>53,62; 67,49</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>29,85; 50,01</t>
+          <t>29,76; 49,28</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>80,01; 89,0</t>
+          <t>80,38; 88,92</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>66,37; 80,28</t>
+          <t>66,67; 80,65</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>29,04; 42,2</t>
+          <t>29,55; 42,65</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>77,58; 85,04</t>
+          <t>77,77; 84,82</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>62,14; 72,49</t>
+          <t>62,52; 72,6</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1564,17 +1564,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,5; 5,37</t>
+          <t>3,44; 5,23</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>15,84; 19,32</t>
+          <t>16,02; 19,24</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>11,35; 14,43</t>
+          <t>11,31; 14,51</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1584,17 +1584,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>8,75; 11,6</t>
+          <t>8,68; 11,58</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>32,55; 37,5</t>
+          <t>32,88; 37,78</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>21,81; 26,12</t>
+          <t>21,75; 26,02</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>5,99; 7,63</t>
+          <t>6,07; 7,62</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>23,91; 26,85</t>
+          <t>24,03; 26,95</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>16,56; 19,24</t>
+          <t>16,58; 19,37</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
